--- a/troyan_realno.xlsx
+++ b/troyan_realno.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="задача 1" sheetId="2" r:id="rId1"/>
@@ -420,84 +420,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>График</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> функции</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.32976619910549981"/>
-          <c:y val="5.0925925925925923E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6977884710802056E-2"/>
-          <c:y val="0.21800925925925929"/>
-          <c:w val="0.87814829064813826"/>
-          <c:h val="0.61498432487605714"/>
+          <c:x val="9.4691962428665788E-2"/>
+          <c:y val="0.15394963540342282"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.72088764946048411"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -507,119 +440,23 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'задача 1'!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>x</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
+            <c:symbol val="x"/>
             <c:size val="5"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:noFill/>
               <a:ln w="9525">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'задача 1'!$B$2:$K$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-82EA-4DC3-BE65-17992E1ED40F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'задача 1'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -667,7 +504,71 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-82EA-4DC3-BE65-17992E1ED40F}"/>
+              <c16:uniqueId val="{00000000-FC9A-46A1-9A89-E87763FC3C9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'задача 1'!$A$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.9614025931697672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.590126714404434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>359.2682992277434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>639.2104717909607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>999.27802373097109</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1439.4709550477744</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1959.7892657413709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2560.2329558117603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3240.8020252589431</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4001.4964740829187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FC9A-46A1-9A89-E87763FC3C9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -681,11 +582,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="336782287"/>
-        <c:axId val="336779375"/>
+        <c:axId val="1936796304"/>
+        <c:axId val="1936799216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="336782287"/>
+        <c:axId val="1936796304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +628,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336779375"/>
+        <c:crossAx val="1936799216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -735,7 +636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="336779375"/>
+        <c:axId val="1936799216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +687,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="336782287"/>
+        <c:crossAx val="1936796304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -798,39 +699,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1231,7 +1101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1261,6 +1130,357 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11956846086911783"/>
+          <c:y val="0.15609871317553198"/>
+          <c:w val="0.86332588451876868"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'задача 2(6 степень)'!$B$3:$K$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E34-49E1-82AF-4BE477056B74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:marker>
+              <c:symbol val="triangle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0E34-49E1-82AF-4BE477056B74}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'задача 2(6 степень)'!$N$20:$W$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1099.0519650448114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>922.04406295018953</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>851.26004964828064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>822.01613215988482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>808.45941627025604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>782.97128455839265</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>766.85945592351527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>763.69665550928767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>748.3665442293568</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>745.27387499809265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E34-49E1-82AF-4BE477056B74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="101355520"/>
+        <c:axId val="101356352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="101355520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101356352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101356352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="101355520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1378,8 +1598,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1487,6 +1747,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1497,6 +1762,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1528,6 +1798,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2384,50 +2657,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>387211</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>7868</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546652</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>79099</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>84068</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314739</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>132523</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>252919</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>56071</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>551092</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>122332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2437,14 +3183,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9508435" y="2799523"/>
+          <a:off x="5449956" y="4008784"/>
           <a:ext cx="4228571" cy="2019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2452,6 +3198,36 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>646043</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323019</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9532,6 +10308,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>59120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>118243</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -9797,8 +10608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9808,15 +10619,15 @@
     <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>4</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9855,7 +10666,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -9893,11 +10704,11 @@
         <f>SUM(B3:K3)</f>
         <v>15299.1</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -9945,11 +10756,11 @@
         <f>SUM(B4:K4)</f>
         <v>153000</v>
       </c>
-      <c r="O4">
+      <c r="N4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -9998,7 +10809,7 @@
         <v>24156000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -10047,7 +10858,7 @@
         <v>4051380000</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -10096,7 +10907,7 @@
         <v>2415796</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -10145,7 +10956,7 @@
         <v>405202780</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -10180,7 +10991,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>$G$19 + $G$20 * A15 + $G$21 * POWER(A15,2)</f>
         <v>9.9614025931697672</v>
@@ -11505,7 +12316,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19:N23"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11941,43 +12752,43 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <f>B3 * B2</f>
+        <f t="shared" ref="B11:K11" si="8">B3 * B2</f>
         <v>1100</v>
       </c>
       <c r="C11">
-        <f>C3 * C2</f>
+        <f t="shared" si="8"/>
         <v>1104</v>
       </c>
       <c r="D11">
-        <f>D3 * D2</f>
+        <f t="shared" si="8"/>
         <v>1190</v>
       </c>
       <c r="E11">
-        <f>E3 * E2</f>
+        <f t="shared" si="8"/>
         <v>1411</v>
       </c>
       <c r="F11">
-        <f>F3 * F2</f>
+        <f t="shared" si="8"/>
         <v>1600</v>
       </c>
       <c r="G11">
-        <f>G3 * G2</f>
+        <f t="shared" si="8"/>
         <v>1884</v>
       </c>
       <c r="H11">
-        <f>H3 * H2</f>
+        <f t="shared" si="8"/>
         <v>2156</v>
       </c>
       <c r="I11">
-        <f>I3 * I2</f>
+        <f t="shared" si="8"/>
         <v>2432</v>
       </c>
       <c r="J11">
-        <f>J3 * J2</f>
+        <f t="shared" si="8"/>
         <v>2700</v>
       </c>
       <c r="K11">
-        <f>K3 * K2</f>
+        <f t="shared" si="8"/>
         <v>2980</v>
       </c>
       <c r="L11">
@@ -11990,43 +12801,43 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <f>B4*B3</f>
+        <f t="shared" ref="B12:K12" si="9">B4*B3</f>
         <v>1100</v>
       </c>
       <c r="C12">
-        <f>C4*C3</f>
+        <f t="shared" si="9"/>
         <v>1324.8</v>
       </c>
       <c r="D12">
-        <f>D4*D3</f>
+        <f t="shared" si="9"/>
         <v>1665.9999999999998</v>
       </c>
       <c r="E12">
-        <f>E4*E3</f>
+        <f t="shared" si="9"/>
         <v>2398.6999999999998</v>
       </c>
       <c r="F12">
-        <f>F4*F3</f>
+        <f t="shared" si="9"/>
         <v>3200</v>
       </c>
       <c r="G12">
-        <f>G4*G3</f>
+        <f t="shared" si="9"/>
         <v>4521.5999999999995</v>
       </c>
       <c r="H12">
-        <f>H4*H3</f>
+        <f t="shared" si="9"/>
         <v>6036.7999999999993</v>
       </c>
       <c r="I12">
-        <f>I4*I3</f>
+        <f t="shared" si="9"/>
         <v>7782.4000000000015</v>
       </c>
       <c r="J12">
-        <f>J4*J3</f>
+        <f t="shared" si="9"/>
         <v>9720</v>
       </c>
       <c r="K12">
-        <f>K4*K3</f>
+        <f t="shared" si="9"/>
         <v>11920</v>
       </c>
       <c r="L12">
@@ -12039,43 +12850,43 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <f>B3*B5</f>
+        <f t="shared" ref="B13:K13" si="10">B3*B5</f>
         <v>1100</v>
       </c>
       <c r="C13">
-        <f>C3*C5</f>
+        <f t="shared" si="10"/>
         <v>1589.76</v>
       </c>
       <c r="D13">
-        <f>D3*D5</f>
+        <f t="shared" si="10"/>
         <v>2332.3999999999996</v>
       </c>
       <c r="E13">
-        <f>E3*E5</f>
+        <f t="shared" si="10"/>
         <v>4077.7899999999995</v>
       </c>
       <c r="F13">
-        <f>F3*F5</f>
+        <f t="shared" si="10"/>
         <v>6400</v>
       </c>
       <c r="G13">
-        <f>G3*G5</f>
+        <f t="shared" si="10"/>
         <v>10851.84</v>
       </c>
       <c r="H13">
-        <f>H3*H5</f>
+        <f t="shared" si="10"/>
         <v>16903.039999999997</v>
       </c>
       <c r="I13">
-        <f>I3*I5</f>
+        <f t="shared" si="10"/>
         <v>24903.680000000008</v>
       </c>
       <c r="J13">
-        <f>J3*J5</f>
+        <f t="shared" si="10"/>
         <v>34992.000000000007</v>
       </c>
       <c r="K13">
-        <f>K3*K5</f>
+        <f t="shared" si="10"/>
         <v>47680</v>
       </c>
       <c r="L13">
@@ -12088,43 +12899,43 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <f>B3*B6</f>
+        <f t="shared" ref="B14:K14" si="11">B3*B6</f>
         <v>1100</v>
       </c>
       <c r="C14">
-        <f>C3*C6</f>
+        <f t="shared" si="11"/>
         <v>1907.712</v>
       </c>
       <c r="D14">
-        <f>D3*D6</f>
+        <f t="shared" si="11"/>
         <v>3265.3599999999988</v>
       </c>
       <c r="E14">
-        <f>E3*E6</f>
+        <f t="shared" si="11"/>
         <v>6932.2429999999986</v>
       </c>
       <c r="F14">
-        <f>F3*F6</f>
+        <f t="shared" si="11"/>
         <v>12800</v>
       </c>
       <c r="G14">
-        <f>G3*G6</f>
+        <f t="shared" si="11"/>
         <v>26044.415999999997</v>
       </c>
       <c r="H14">
-        <f>H3*H6</f>
+        <f t="shared" si="11"/>
         <v>47328.511999999988</v>
       </c>
       <c r="I14">
-        <f>I3*I6</f>
+        <f t="shared" si="11"/>
         <v>79691.776000000042</v>
       </c>
       <c r="J14">
-        <f>J3*J6</f>
+        <f t="shared" si="11"/>
         <v>125971.20000000003</v>
       </c>
       <c r="K14">
-        <f>K3*K6</f>
+        <f t="shared" si="11"/>
         <v>190720</v>
       </c>
       <c r="L14">
@@ -12313,47 +13124,47 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f>$G$19 + $G$20 *B26 + $G$21 * POWER(B26,2) + $G$22 * POWER(B26,3) + $G$23 * POWER(B26,4)</f>
+        <f t="shared" ref="B27:L27" si="12">$G$19 + $G$20 *B26 + $G$21 * POWER(B26,2) + $G$22 * POWER(B26,3) + $G$23 * POWER(B26,4)</f>
         <v>1079.9751335573674</v>
       </c>
       <c r="C27">
-        <f>$G$19 + $G$20 *C26 + $G$21 * POWER(C26,2) + $G$22 * POWER(C26,3) + $G$23 * POWER(C26,4)</f>
+        <f t="shared" si="12"/>
         <v>948.47087982468202</v>
       </c>
       <c r="D27">
-        <f>$G$19 + $G$20 *D26 + $G$21 * POWER(D26,2) + $G$22 * POWER(D26,3) + $G$23 * POWER(D26,4)</f>
+        <f t="shared" si="12"/>
         <v>865.51050606407489</v>
       </c>
       <c r="E27">
-        <f>$G$19 + $G$20 *E26 + $G$21 * POWER(E26,2) + $G$22 * POWER(E26,3) + $G$23 * POWER(E26,4)</f>
+        <f t="shared" si="12"/>
         <v>804.45532866709209</v>
       </c>
       <c r="F27">
-        <f>$G$19 + $G$20 *F26 + $G$21 * POWER(F26,2) + $G$22 * POWER(F26,3) + $G$23 * POWER(F26,4)</f>
+        <f t="shared" si="12"/>
         <v>788.14112441753969</v>
       </c>
       <c r="G27">
-        <f>$G$19 + $G$20 *G26 + $G$21 * POWER(G26,2) + $G$22 * POWER(G26,3) + $G$23 * POWER(G26,4)</f>
+        <f t="shared" si="12"/>
         <v>790.42961491119331</v>
       </c>
       <c r="H27">
-        <f>$G$19 + $G$20 *H26 + $G$21 * POWER(H26,2) + $G$22 * POWER(H26,3) + $G$23 * POWER(H26,4)</f>
+        <f t="shared" si="12"/>
         <v>785.43080134545289</v>
       </c>
       <c r="I27">
-        <f>$G$19 + $G$20 *I26 + $G$21 * POWER(I26,2) + $G$22 * POWER(I26,3) + $G$23 * POWER(I26,4)</f>
+        <f t="shared" si="12"/>
         <v>761.53042873042341</v>
       </c>
       <c r="J27">
-        <f>$G$19 + $G$20 *J26 + $G$21 * POWER(J26,2) + $G$22 * POWER(J26,3) + $G$23 * POWER(J26,4)</f>
+        <f t="shared" si="12"/>
         <v>735.17656779883328</v>
       </c>
       <c r="K27">
-        <f>$G$19 + $G$20 *K26 + $G$21 * POWER(K26,2) + $G$22 * POWER(K26,3) + $G$23 * POWER(K26,4)</f>
+        <f t="shared" si="12"/>
         <v>750.87961500603706</v>
       </c>
       <c r="L27">
-        <f>$G$19 + $G$20 *L26 + $G$21 * POWER(L26,2) + $G$22 * POWER(L26,3) + $G$23 * POWER(L26,4)</f>
+        <f t="shared" si="12"/>
         <v>1519.4543251321011</v>
       </c>
     </row>
@@ -12366,8 +13177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12460,7 +13271,7 @@
         <v>8119.1705290000009</v>
       </c>
       <c r="U2" s="11">
-        <f>L9</f>
+        <f t="shared" ref="U2:U7" si="0">L9</f>
         <v>29648.488638500003</v>
       </c>
       <c r="V2">
@@ -12525,7 +13336,7 @@
         <v>29648.488638500003</v>
       </c>
       <c r="U3" s="11">
-        <f>L10</f>
+        <f t="shared" si="0"/>
         <v>109966.80375937001</v>
       </c>
       <c r="V3">
@@ -12541,43 +13352,43 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:K4" si="0">POWER(C2,2)</f>
+        <f t="shared" ref="C4:K4" si="1">POWER(C2,2)</f>
         <v>1.44</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9599999999999997</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8899999999999997</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.76</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.839999999999999</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.240000000000002</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.96</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L14" si="1">SUM(B4:K4)</f>
+        <f t="shared" ref="L4:L14" si="2">SUM(B4:K4)</f>
         <v>64.09</v>
       </c>
       <c r="O4" s="17">
@@ -12600,7 +13411,7 @@
         <v>109966.80375937001</v>
       </c>
       <c r="U4" s="11">
-        <f>L11</f>
+        <f t="shared" si="0"/>
         <v>412766.00095451309</v>
       </c>
       <c r="V4">
@@ -12620,31 +13431,31 @@
         <v>1.728</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:J5" si="2">POWER(D2,3)</f>
+        <f t="shared" ref="D5:J5" si="3">POWER(D2,3)</f>
         <v>2.7439999999999993</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.9129999999999994</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.824</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.951999999999995</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.768000000000008</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.656000000000006</v>
       </c>
       <c r="K5">
@@ -12652,7 +13463,7 @@
         <v>64</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>197.58500000000001</v>
       </c>
       <c r="O5" s="17">
@@ -12675,7 +13486,7 @@
         <v>412766.00095451309</v>
       </c>
       <c r="U5" s="11">
-        <f>L12</f>
+        <f t="shared" si="0"/>
         <v>1564003.5660486051</v>
       </c>
       <c r="V5">
@@ -12691,35 +13502,35 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:J6" si="3">POWER(C2,4)</f>
+        <f t="shared" ref="C6:J6" si="4">POWER(C2,4)</f>
         <v>2.0735999999999999</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.8415999999999988</v>
       </c>
       <c r="E6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.3520999999999983</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.177599999999998</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61.465599999999981</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104.85760000000005</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>167.96160000000003</v>
       </c>
       <c r="K6">
@@ -12727,7 +13538,7 @@
         <v>256</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>654.72970000000009</v>
       </c>
       <c r="O6" s="17">
@@ -12749,7 +13560,7 @@
         <v>1564003.5660486051</v>
       </c>
       <c r="U6" s="11">
-        <f>L13</f>
+        <f t="shared" si="0"/>
         <v>5971400.5594172012</v>
       </c>
       <c r="V6">
@@ -12765,43 +13576,43 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:K7" si="4">POWER(C2,5)</f>
+        <f t="shared" ref="C7:K7" si="5">POWER(C2,5)</f>
         <v>2.4883199999999999</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.3782399999999981</v>
       </c>
       <c r="E7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14.198569999999997</v>
       </c>
       <c r="F7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.626239999999996</v>
       </c>
       <c r="H7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>172.10367999999994</v>
       </c>
       <c r="I7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>335.5443200000002</v>
       </c>
       <c r="J7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>604.66176000000019</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1024</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2271.0011300000006</v>
       </c>
       <c r="O7" s="18">
@@ -12823,7 +13634,7 @@
         <v>5971400.5594172012</v>
       </c>
       <c r="U7" s="20">
-        <f>L14</f>
+        <f t="shared" si="0"/>
         <v>22942002.687703788</v>
       </c>
       <c r="V7">
@@ -12839,43 +13650,43 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:K8" si="5">POWER(C2,6)</f>
+        <f t="shared" ref="C8:K8" si="6">POWER(C2,6)</f>
         <v>2.9859839999999997</v>
       </c>
       <c r="D8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5295359999999967</v>
       </c>
       <c r="E8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>24.137568999999992</v>
       </c>
       <c r="F8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="G8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>191.10297599999998</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>481.89030399999979</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1073.7418240000006</v>
       </c>
       <c r="J8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2176.7823360000007</v>
       </c>
       <c r="K8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8119.1705290000009</v>
       </c>
     </row>
@@ -12888,43 +13699,43 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:K9" si="6">POWER(C2,7)</f>
+        <f t="shared" ref="C9:K9" si="7">POWER(C2,7)</f>
         <v>3.5831807999999996</v>
       </c>
       <c r="D9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.541350399999994</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>41.033867299999983</v>
       </c>
       <c r="F9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
       <c r="G9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>458.64714239999995</v>
       </c>
       <c r="H9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1349.2928511999992</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3435.9738368000026</v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7836.4164096000022</v>
       </c>
       <c r="K9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16384</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29648.488638500003</v>
       </c>
     </row>
@@ -12937,43 +13748,43 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:K10" si="7">POWER(C2,8)</f>
+        <f t="shared" ref="C10:K10" si="8">POWER(C2,8)</f>
         <v>4.2998169599999994</v>
       </c>
       <c r="D10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.757890559999991</v>
       </c>
       <c r="E10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>69.757574409999975</v>
       </c>
       <c r="F10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>256</v>
       </c>
       <c r="G10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1100.7531417599998</v>
       </c>
       <c r="H10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3778.0199833599977</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10995.116277760009</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28211.09907456001</v>
       </c>
       <c r="K10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>65536</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109966.80375937001</v>
       </c>
       <c r="N10" t="s">
@@ -12993,43 +13804,43 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:K11" si="8">POWER(C2,9)</f>
+        <f t="shared" ref="C11:K11" si="9">POWER(C2,9)</f>
         <v>5.1597803519999994</v>
       </c>
       <c r="D11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20.661046783999986</v>
       </c>
       <c r="E11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>118.58787649699995</v>
       </c>
       <c r="F11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>512</v>
       </c>
       <c r="G11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2641.8075402239997</v>
       </c>
       <c r="H11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10578.455953407993</v>
       </c>
       <c r="I11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35184.372088832031</v>
       </c>
       <c r="J11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>101559.95666841604</v>
       </c>
       <c r="K11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>262144</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>412766.00095451309</v>
       </c>
       <c r="N11" t="s">
@@ -13048,43 +13859,43 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:K12" si="9">POWER(C2,10)</f>
+        <f t="shared" ref="C12:K12" si="10">POWER(C2,10)</f>
         <v>6.1917364223999991</v>
       </c>
       <c r="D12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.92546549759998</v>
       </c>
       <c r="E12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>201.59939004489991</v>
       </c>
       <c r="F12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1024</v>
       </c>
       <c r="G12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6340.3380965375991</v>
       </c>
       <c r="H12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29619.676669542379</v>
       </c>
       <c r="I12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>112589.99068426252</v>
       </c>
       <c r="J12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>365615.84400629776</v>
       </c>
       <c r="K12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1048576</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1564003.5660486051</v>
       </c>
       <c r="N12" t="s">
@@ -13103,43 +13914,43 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:K13" si="10">POWER(C2,11)</f>
+        <f t="shared" ref="C13:K13" si="11">POWER(C2,11)</f>
         <v>7.4300837068799988</v>
       </c>
       <c r="D13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40.495651696639968</v>
       </c>
       <c r="E13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>342.71896307632983</v>
       </c>
       <c r="F13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2048</v>
       </c>
       <c r="G13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15216.811431690237</v>
       </c>
       <c r="H13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82935.094674718654</v>
       </c>
       <c r="I13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>360287.97018964007</v>
       </c>
       <c r="J13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1316217.0384226721</v>
       </c>
       <c r="K13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4194304</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5971400.5594172012</v>
       </c>
       <c r="N13" t="s">
@@ -13158,43 +13969,43 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:K14" si="11">POWER(C2,12)</f>
+        <f t="shared" ref="C14:K14" si="12">POWER(C2,12)</f>
         <v>8.9161004482559978</v>
       </c>
       <c r="D14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>56.693912375295945</v>
       </c>
       <c r="E14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>582.62223722976069</v>
       </c>
       <c r="F14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4096</v>
       </c>
       <c r="G14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>36520.347436056567</v>
       </c>
       <c r="H14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>232218.26508921219</v>
       </c>
       <c r="I14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1152921.5046068486</v>
       </c>
       <c r="J14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4738381.3383216197</v>
       </c>
       <c r="K14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16777216</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22942002.687703788</v>
       </c>
       <c r="N14" t="s">
@@ -13209,43 +14020,43 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <f>B3 * B2</f>
+        <f t="shared" ref="B15:K15" si="13">B3 * B2</f>
         <v>1100</v>
       </c>
       <c r="C15">
-        <f>C3 * C2</f>
+        <f t="shared" si="13"/>
         <v>1104</v>
       </c>
       <c r="D15">
-        <f>D3 * D2</f>
+        <f t="shared" si="13"/>
         <v>1190</v>
       </c>
       <c r="E15">
-        <f>E3 * E2</f>
+        <f t="shared" si="13"/>
         <v>1411</v>
       </c>
       <c r="F15">
-        <f>F3 * F2</f>
+        <f t="shared" si="13"/>
         <v>1600</v>
       </c>
       <c r="G15">
-        <f>G3 * G2</f>
+        <f t="shared" si="13"/>
         <v>1884</v>
       </c>
       <c r="H15">
-        <f>H3 * H2</f>
+        <f t="shared" si="13"/>
         <v>2156</v>
       </c>
       <c r="I15">
-        <f>I3 * I2</f>
+        <f t="shared" si="13"/>
         <v>2432</v>
       </c>
       <c r="J15">
-        <f>J3 * J2</f>
+        <f t="shared" si="13"/>
         <v>2700</v>
       </c>
       <c r="K15">
-        <f>K3 * K2</f>
+        <f t="shared" si="13"/>
         <v>2980</v>
       </c>
       <c r="L15">
@@ -13264,43 +14075,43 @@
         <v>8</v>
       </c>
       <c r="B16">
-        <f>B4*B3</f>
+        <f t="shared" ref="B16:K16" si="14">B4*B3</f>
         <v>1100</v>
       </c>
       <c r="C16">
-        <f>C4*C3</f>
+        <f t="shared" si="14"/>
         <v>1324.8</v>
       </c>
       <c r="D16">
-        <f>D4*D3</f>
+        <f t="shared" si="14"/>
         <v>1665.9999999999998</v>
       </c>
       <c r="E16">
-        <f>E4*E3</f>
+        <f t="shared" si="14"/>
         <v>2398.6999999999998</v>
       </c>
       <c r="F16">
-        <f>F4*F3</f>
+        <f t="shared" si="14"/>
         <v>3200</v>
       </c>
       <c r="G16">
-        <f>G4*G3</f>
+        <f t="shared" si="14"/>
         <v>4521.5999999999995</v>
       </c>
       <c r="H16">
-        <f>H4*H3</f>
+        <f t="shared" si="14"/>
         <v>6036.7999999999993</v>
       </c>
       <c r="I16">
-        <f>I4*I3</f>
+        <f t="shared" si="14"/>
         <v>7782.4000000000015</v>
       </c>
       <c r="J16">
-        <f>J4*J3</f>
+        <f t="shared" si="14"/>
         <v>9720</v>
       </c>
       <c r="K16">
-        <f>K4*K3</f>
+        <f t="shared" si="14"/>
         <v>11920</v>
       </c>
       <c r="L16">
@@ -13319,43 +14130,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <f>B3*B5</f>
+        <f t="shared" ref="B17:K17" si="15">B3*B5</f>
         <v>1100</v>
       </c>
       <c r="C17">
-        <f>C3*C5</f>
+        <f t="shared" si="15"/>
         <v>1589.76</v>
       </c>
       <c r="D17">
-        <f>D3*D5</f>
+        <f t="shared" si="15"/>
         <v>2332.3999999999996</v>
       </c>
       <c r="E17">
-        <f>E3*E5</f>
+        <f t="shared" si="15"/>
         <v>4077.7899999999995</v>
       </c>
       <c r="F17">
-        <f>F3*F5</f>
+        <f t="shared" si="15"/>
         <v>6400</v>
       </c>
       <c r="G17">
-        <f>G3*G5</f>
+        <f t="shared" si="15"/>
         <v>10851.84</v>
       </c>
       <c r="H17">
-        <f>H3*H5</f>
+        <f t="shared" si="15"/>
         <v>16903.039999999997</v>
       </c>
       <c r="I17">
-        <f>I3*I5</f>
+        <f t="shared" si="15"/>
         <v>24903.680000000008</v>
       </c>
       <c r="J17">
-        <f>J3*J5</f>
+        <f t="shared" si="15"/>
         <v>34992.000000000007</v>
       </c>
       <c r="K17">
-        <f>K3*K5</f>
+        <f t="shared" si="15"/>
         <v>47680</v>
       </c>
       <c r="L17">
@@ -13372,39 +14183,39 @@
         <v>1100</v>
       </c>
       <c r="C18">
-        <f>C3*C6</f>
+        <f t="shared" ref="C18:K18" si="16">C3*C6</f>
         <v>1907.712</v>
       </c>
       <c r="D18">
-        <f>D3*D6</f>
+        <f t="shared" si="16"/>
         <v>3265.3599999999988</v>
       </c>
       <c r="E18">
-        <f>E3*E6</f>
+        <f t="shared" si="16"/>
         <v>6932.2429999999986</v>
       </c>
       <c r="F18">
-        <f>F3*F6</f>
+        <f t="shared" si="16"/>
         <v>12800</v>
       </c>
       <c r="G18">
-        <f>G3*G6</f>
+        <f t="shared" si="16"/>
         <v>26044.415999999997</v>
       </c>
       <c r="H18">
-        <f>H3*H6</f>
+        <f t="shared" si="16"/>
         <v>47328.511999999988</v>
       </c>
       <c r="I18">
-        <f>I3*I6</f>
+        <f t="shared" si="16"/>
         <v>79691.776000000042</v>
       </c>
       <c r="J18">
-        <f>J3*J6</f>
+        <f t="shared" si="16"/>
         <v>125971.20000000003</v>
       </c>
       <c r="K18">
-        <f>K3*K6</f>
+        <f t="shared" si="16"/>
         <v>190720</v>
       </c>
       <c r="L18">
@@ -13421,35 +14232,35 @@
         <v>1100</v>
       </c>
       <c r="C19">
-        <f t="shared" ref="C19:K19" si="12">C$3*C7</f>
+        <f t="shared" ref="C19:J19" si="17">C$3*C7</f>
         <v>2289.2543999999998</v>
       </c>
       <c r="D19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4571.5039999999981</v>
       </c>
       <c r="E19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>11784.813099999998</v>
       </c>
       <c r="F19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>25600</v>
       </c>
       <c r="G19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>62506.598399999995</v>
       </c>
       <c r="H19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>132519.83359999995</v>
       </c>
       <c r="I19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>255013.68320000015</v>
       </c>
       <c r="J19">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>453496.32000000012</v>
       </c>
       <c r="K19">
@@ -13457,7 +14268,7 @@
         <v>762880</v>
       </c>
       <c r="L19">
-        <f t="shared" ref="L19:L20" si="13">SUM(B19:K19)</f>
+        <f t="shared" ref="L19:L20" si="18">SUM(B19:K19)</f>
         <v>1711762.0067000003</v>
       </c>
       <c r="N19">
@@ -13503,35 +14314,35 @@
         <v>1100</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:K20" si="14">C$3*C8</f>
+        <f t="shared" ref="C20:J20" si="19">C$3*C8</f>
         <v>2747.1052799999998</v>
       </c>
       <c r="D20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6400.1055999999971</v>
       </c>
       <c r="E20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>20034.182269999994</v>
       </c>
       <c r="F20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>51200</v>
       </c>
       <c r="G20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>150015.83615999998</v>
       </c>
       <c r="H20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>371055.53407999984</v>
       </c>
       <c r="I20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>816043.78624000051</v>
       </c>
       <c r="J20">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1632586.7520000006</v>
       </c>
       <c r="K20">
@@ -13539,7 +14350,7 @@
         <v>3051520</v>
       </c>
       <c r="L20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>6102703.3016300006</v>
       </c>
       <c r="N20">
@@ -13547,39 +14358,39 @@
         <v>1099.0519650448114</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:X20" si="15">$O$10 + $O$11 *O19 + $O$12 * POWER(O19,2) + $O$13 * POWER(O19,3) + $O$14 * POWER(O19,4) + $O$15 * POWER(O19,5) + $O$16 * POWER(O19,6)</f>
+        <f t="shared" ref="O20:W20" si="20">$O$10 + $O$11 *O19 + $O$12 * POWER(O19,2) + $O$13 * POWER(O19,3) + $O$14 * POWER(O19,4) + $O$15 * POWER(O19,5) + $O$16 * POWER(O19,6)</f>
         <v>922.04406295018953</v>
       </c>
       <c r="P20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>851.26004964828064</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>822.01613215988482</v>
       </c>
       <c r="R20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>808.45941627025604</v>
       </c>
       <c r="S20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>782.97128455839265</v>
       </c>
       <c r="T20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>766.85945592351527</v>
       </c>
       <c r="U20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>763.69665550928767</v>
       </c>
       <c r="V20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>748.3665442293568</v>
       </c>
       <c r="W20">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>745.27387499809265</v>
       </c>
       <c r="X20" s="1">
@@ -13622,5 +14433,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>